--- a/Hertz200/Documents/Hert200_Parameters01.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>MCU/CHIPSET</t>
   </si>
@@ -310,6 +310,24 @@
   </si>
   <si>
     <t>PMIC INDUCTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105017-0001 </t>
+  </si>
+  <si>
+    <t>Female USB connector</t>
+  </si>
+  <si>
+    <t>503960-0696</t>
+  </si>
+  <si>
+    <t>SIM CONNECTOR from Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXB0104QPWRQ1 </t>
+  </si>
+  <si>
+    <t>4bit BiDir Logic level converter</t>
   </si>
 </sst>
 </file>
@@ -318,10 +336,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24">
@@ -378,6 +396,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -386,8 +419,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,112 +519,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -517,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,30 +726,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -753,32 +747,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +770,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -808,18 +802,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,91 +847,109 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,37 +958,19 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,10 +1539,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1939,6 +1957,39 @@
         <v>0.31</v>
       </c>
     </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42">
+        <v>1.41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/Hertz200/Documents/Hert200_Parameters01.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters01.xlsx
@@ -294,7 +294,7 @@
     <t>LDO 3.3V</t>
   </si>
   <si>
-    <t xml:space="preserve">TS04-66-75-BK-160-SMT </t>
+    <t xml:space="preserve">TL3305AF160QG </t>
   </si>
   <si>
     <t>SWITCH TACTILE</t>
@@ -335,12 +335,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -383,12 +383,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,8 +405,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,6 +452,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -419,54 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,17 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,9 +512,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,26 +729,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +765,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -794,11 +811,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,33 +826,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,130 +847,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,7 +986,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,7 +994,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,8 +1541,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1926,7 +1926,7 @@
         <v>93</v>
       </c>
       <c r="F32">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34" spans="1:6">
